--- a/通知_単体テスト.xlsx
+++ b/通知_単体テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F16A7176-DFE9-40E3-9C7A-00EFAB1713AB}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{337239D9-B5ED-49C4-958C-29C14B307E80}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -277,22 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントが更新された場合、「イベント「○○」が更新されました。」の表示</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベントが削除された場合、「イベント「○○」が削除されました。」の表示</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -325,22 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブログが更新された場合、「ブログ「○○」が更新されました。」の表示</t>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブログが削除された場合、「ブログ「○○」が削除されました。」の表示</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -373,22 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アルバムが更新された場合、「アルバム「○○」が更新されました。」の表示</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アルバムが削除された場合、「アルバム「○○」が削除されました。」の表示</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -615,13 +567,6 @@
     <t>「イベント「○○」が登録されました。」</t>
   </si>
   <si>
-    <t>「イベント「○○」が更新れました。」</t>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「イベント「○○」が削除されました。」</t>
     <rPh sb="10" eb="12">
       <t>サクジョ</t>
@@ -633,13 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「ブログ「○○」が更新されました。」</t>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「ブログ「○○」が削除されました。」</t>
     <rPh sb="9" eb="11">
       <t>サクジョ</t>
@@ -651,13 +589,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アルバム「○○」が更新されました。」</t>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「アルバム「○○」が削除されました。」</t>
     <rPh sb="10" eb="12">
       <t>サクジョ</t>
@@ -675,7 +606,137 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>×</t>
+    <t>イベントが更新された場合、「イベント「○○」が更新されました（変更箇所）」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベント「○○」が更新れました。（変更箇所）」</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログが更新された場合、「ブログ「○○」が更新されました。（変更箇所）」の表示</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ブログ「○○」が更新されました。（変更箇所）」</t>
+    <rPh sb="9" eb="11">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバムが更新された場合、「アルバム「○○」が更新されました。（変更箇所）」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アルバム「○○」が更新されました。（変更箇所）」</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.XAMPPのMySQLを停止の状態にする</t>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.「通知」ボタンを押す</t>
+    <rPh sb="3" eb="5">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが発生した場合、赤字で「エラーが発生したため通知の取得ができませんでした。」とボタンの表示</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したため、通知の取得ができませんでした。」とボタンの</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -756,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,16 +833,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1449,7 +1507,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1460,7 +1518,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1527,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +1536,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1611,7 +1669,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4">
         <v>45994</v>
@@ -1646,10 +1704,10 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G14" s="4">
         <v>45994</v>
@@ -1665,7 +1723,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1673,12 +1731,12 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1694,16 +1752,16 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G17" s="4">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -1711,12 +1769,12 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -1729,7 +1787,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1745,13 +1803,13 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G20" s="4">
         <v>45994</v>
@@ -1767,7 +1825,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1775,12 +1833,12 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1796,13 +1854,13 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G23" s="4">
         <v>45994</v>
@@ -1818,7 +1876,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1831,7 +1889,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1847,16 +1905,16 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G26" s="4">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
@@ -1869,7 +1927,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1877,12 +1935,12 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="6"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1898,13 +1956,13 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G29" s="4">
         <v>45994</v>
@@ -1920,7 +1978,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1928,30 +1986,34 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>34</v>
+      <c r="A32" s="5">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G32" s="4">
         <v>45994</v>
@@ -1959,15 +2021,15 @@
       <c r="H32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="8"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="6"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1975,12 +2037,12 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="6"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1988,20 +2050,24 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="2">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G35" s="4">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>17</v>
@@ -2014,7 +2080,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2027,7 +2093,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2035,17 +2101,21 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G38" s="4">
         <v>45994</v>
@@ -2061,7 +2131,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2074,7 +2144,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2082,17 +2152,21 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="2">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G41" s="4">
         <v>45994</v>
@@ -2108,7 +2182,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2121,7 +2195,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2129,17 +2203,21 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G44" s="4">
         <v>45994</v>
@@ -2155,7 +2233,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2168,7 +2246,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2176,17 +2254,21 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="2">
+        <v>15</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G47" s="4">
         <v>45994</v>
@@ -2202,7 +2284,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2215,7 +2297,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2223,23 +2305,27 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2">
+        <v>16</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G50" s="4">
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -2258,7 +2344,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>20</v>
@@ -2268,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>19</v>
@@ -2291,6 +2377,46 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2">
+        <v>18</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45998</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
